--- a/story/主线剧情/main/level_main_08-05_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-05_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="426">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">晖洁：
 </t>
   </si>
@@ -863,6 +869,850 @@
   </si>
   <si>
     <t xml:space="preserve">この場所をもう少し温めてやろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hui-chieh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one would offer the Infected any help. We were no volunteer army. We had nothing like the “Brave Wok” from the age of Mikhail the Huge Ears. We had no city of our own, and we hardly even had fields to hill up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“The Originium grows on our skin, and the scant few weapons we hold are stark. The snow in our mouths melts into our water, our stomachs are filled with grass seed and bark. “
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And so they sang. I learned a good few of those in short order.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were just some Infected with nowhere to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I became more and more sure. Coming to the Northern Tundra first was the right choice. Nothing but people with nowhere to return, and nowhere to go, wherever you went.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Infected in the cities, singled out by the common folk. The races of each country looking on one another with suspicion of their differences. Only out on the tundra do people become a little simpler.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wanted to go back south. But this time, I probably wouldn’t be going alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infected dying of frostbite and hunger on the tundra is not the same as Infected dying of their illness on their own land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Infected should pioneer their own city. If Ursus doesn’t allow it, then Ursus should be changed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exile, abdication, leaving the country—in the end, you were still a homeless vagabond. Whenever you told of a place that’d admit the Infected, you were telling a fairytale.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the Infected wanted to regain their dignity, they needed strength, unity, and a change in the status quo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we could gain the backing of the Infected guerrillas, then maybe this quest of ours would have some chance of success.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was important for the Infected to regain their confidence. It was crucial for us to have any sense of meaning in our lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No doubt about it, it’s here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Those patrolmen set up new sentries around the abandoned city. Those black-swaddled, black-shelled vermin... chewing away at the crops, leaving not even a scrap for us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...This city’s been derelict for over ten years, now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Its core facilities were towed away, and none of its inhabitants stayed behind. The buildings and city plates left might someday be pulled apart and picked clean, too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Which noble’s turf was this, originally?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Baron Neva, knifed to death in a riot.  Every possible heir of his within a hundred kilometers had already been uprooted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Who did it? Sounds vicious.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Royalists. The First Army had plenty of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] I don’t get it. Talulah, you said a few days ago, right? The Great Rebellion was carried out by the current Emperor and the old military noblemen?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] So why would the army help the Emperor kill nobles?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The principal force driving the Great Rebellion was the age before it... those Ursus military nobles who stood to gain everything from Ursus’s epoch of relentless outward expansion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] After the new Emperor ascended, it was natural they’d spit out every city, all the resources, and the entire population they'd swallowed up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] At that time, most of Ursus’s army was under the direct control of the military nobles. But the royalists were no slow thinkers. One fewer noble meant one less share of the spoils.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Then, once they’d disposed of those nobles, the silver made its way back to their pockets. The risk was high, but they had the capital to make that foray.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And that’s why, during the Great Rebellion, past the cities all saving their own hides, the royalists probably inflicted the biggest losses on the families with a hand in the rebellions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] So they say. If it was the actual rebel armies who held the advantage in the Great Rebellion...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Then the royalists would’ve been hanged and the Emperor placed under house arrest, consent forced by the prerogative of all those goddamned putrefying nobles littering the military.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] All the lordly dukes and their armies would’ve split Ursus up into countless smaller regimes—at least, internally, they were sure things would go that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And don’t forget, back in reality, all those young officers on the rise after the Great Rebellion played out weren’t siding with the new Emperor. They were probably just siding with the money.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] ...I see. At the end of it all, it was still fought for money.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Correct.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Hah. You have answers for everything, don’t you, Talulah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...The one who taught me all this was so arrogant, he didn’t even care how much I took in. I could probably rattle that crap off without even thinking about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] That’s enough. God knows you’re plenty smart. Why come here, then? You already said any place a person could live is long gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] How’d you figure anything out of all their nonsense ramblings these past few days... how’d you figure out the Patrol Unit would be here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] All the villages in the area were planning to move. If a Catastrophe’s not coming, then that only leaves one reason.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It’s the rotten patrolmen, coming to stay. If it were some army passing through, the villages wouldn’t dare think of moving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It should be because the harvest season’s just ended. The Patrol Unit will carry out their routine inspections now, making sure the tax collectors haven’t gone into the villages yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The nearest city still operating is Shiraziberg. It’s mainly light industry. It’s only stopped over here to procure resources at most.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Most villages in the vicinity don’t have a landholder protecting them, so those rotting patrolmen have flocked in from all over. They must’ve seen things were ripe for the picking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...Originally, they were just a ragtag organization of rogues tracking down the Infected. Now they’re all old geezers on a rampage who’ll stoop to any low.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Then let’s wipe them out. Our days here’ll be a lot more peaceful if we do. We should.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We don’t have the capacity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Huh? So what the hell are we here to do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] —”Aegis.”  “Aegis” are attacking the sentries here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] ...Guerrillas?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Infected guerrillas? ! Damn, that’s... man, Emperor above...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It isn’t easy to make contact with them. We’ve been piling up information for three whole months, and now we’ve finally scooped an opportunity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Didn’t care much when you said a few days ago we were looking for another group, but if I’d known you were looking for... for guerrilla fighters. Man.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] But. Um. You have an easy time linking up with the southern city Infected. Is it really that hard to get in touch with these guys?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If you want to survive in the city, you need to be proactive about your intel and collaborators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If you want to survive out on the tundra, what you need is solid tactics and a lifestyle that keeps Ursus’s spies guessing at all times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The Infected have plenty of Messengers, and the Infected have their own methods and channels to get the signal out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The guerrillas? The guerrillas will only ever talk to the tundra Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The guerrillas don’t want to be found, that’s the thing. Neither do they want to join up with anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They accept the Infected into their own group, and train them to become fighters. They’re probably not exactly like I’m hoping, but the guerrillas are still undoubtedly going strong, with no signs of slowing down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] —At the very least, there have been two small guerrilla bands who’ve exchanged resources with Infected settlements ten kilometers out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Even if the local Infected won’t talk, it wouldn’t have been the Army who left those fire pits outside their villages.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Okay, here’s what they’re here to do: destroy this freshly built sentry outpost, and make sure the patrolmen go down with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Everyone, sit tight here. Be on alert. Patrolmen could be fleeing through these parts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It’s a long way out from Shiraziberg, and the sentries have barely set up. They won’t hold out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They’ll retreat. As long as they haven’t been annihilated by the guerrillas, that is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Hide yourselves. If we run into two or three Patrol Unit bands at once, we won’t be able to take them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Talulah?! Are you going alone? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Let me. If we want to make contact with the guerrillas, we’ll need to show them we’re not hostile. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And if we end up skirmishing, you could just as easily escape.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Are you treating us like cowards?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I’ve never met people braver than you. And that’s why, to your fellow Infected compatriots, you are crucial. If they want to be alive down the line, that’s all the more reason they need you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Which is the better choice: you live, or we sacrifice more for my sake? It should be plenty obvious.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You’re still looking down on us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I’ve put in a great deal of thought into this decision. And everyone will be better off, by the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] So don’t run your mouth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You’re just pissed, now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Like we’re not all burning inside! If you think we don’t understand you, newsflash—it feels like you don’t bother getting what we think, either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] A “decision” means nothing to us. We came back with you all the way from the Northwest... and it wasn’t for any “decision.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You fight well! You let us all eat, you taught us a hell of a lot more than we knew before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] I don’t understand you well, but as far as I’m concerned, you’re different from the city-dwellers, or even the Infected in the mines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You just don’t want us to die, right? Talulah, look at us. Think we’re scared? We’re no cowards!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Bet it never crossed your mind. Compared to drifting endlessly, we’re a hell of a lot more prepared to die with you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What if I told you I saw this coming long ago, and just hoped you wouldn’t do it this way?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Because I won’t die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It’s okay. Let me go. Less casualties this way, too.  Besides, I’m—*chuckle* “the Deathless.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] In the words of a repulsive monster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Wait... Talulah, like hell we let anyone look down on us! We don’t want them to think we’re begging for them. Just let us come with you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Only executioners rank people by the murder in them. You’ve already won respect for the fact that you stepped forward.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If anyone looks down on you, that’s the one who truly deserves to be scorned.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] —Wait, Talulah! You’re seriously going with just a single sword?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] A list of names and a book of frequency numbers, too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Remember, my friends! These are far more important than my sword!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talulah regretted it a little.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She didn’t run into the stomach-dropping terror that was the guerrillas. She didn’t catch sight of their iconic aegis. She never so much as glimpsed a single worn-out Ursus armament. Nor any of the fabled towering Sarkaz who walked with the guerrillas, even.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For better, or for worse... she encountered the Yeti Squad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And it was cold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She lit a fire, and jumped into the last of the Patrol Unit’s watchtowers, out of the startled, certain gaze of a white-wrapped group of Yetis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Careful the list doesn’t burn. It’s so cold, though. Too cold, she thought.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to warm this place up a little.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훼이지에에게
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아무도 감염자를 지원하진 않을 거야. 우리는 의용군도, '큰 귀' 미하일 시대의 '용감한 웍'도 아니니까. 우리만의 거점이나 비빌 만한 언덕 같은 건 기대할 수도 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"우리 몸엔 오리지늄이 자라고, 몇 자루 무기가 손에 든 전부. 입안의 눈이 녹아 물이 되고, 뱃속엔 풀씨와 나무껍질이 가득하네."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모두 이런 노래를 부르던데, 나도 최근에 여러 곡 배웠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 갈 곳 없는 감염자에 불과해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">일단 북툰드라로 오길 잘했다는 생각이 들어. 여긴 돌아갈 곳이 없는, 갈 곳이 없는 사람으로 가득하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도시 지역 감염자와 민간인의 분화가 진행될 거야. 각국 역시 종족이 다르다는 이유로 서로 의심하게 될 거고. 하지만 설원에서는 모든 게 단순해져.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">남쪽으로 돌아가고 싶어, 하지만 돌아가더라도 절대 혼자 가지는 않을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감염자들이 설원에서 굶어 죽거나 얼어 죽는 것과 자신들의 땅에서 병들어 죽는 건 엄연히 다른 문제야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감염자는 자신들의 거점을 확보해야 해. 우르수스가 용납하지 않는다면 우르수스를 바꾸는 수밖에.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도망다니다가 나라를 등지고 나면 결국 갈 곳 없는 떠돌이 신세가 될 뿐이야. 이 대륙에서 감염자를 받아줄 곳이 있다는 건, 동화에나 나올 법한 이야기에 불과해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">존엄을 되찾고 싶다면 감염자에게는 지금의 상황을 바꿀 힘과 구심점이 필요해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감염자 부대를 같은 편으로 끌어들일 수 있다면 이번 여정도 성공할 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감염자의 신뢰를 되찾는 게 중요해, 우리의 생명과 직결된 문제니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 맞아, 바로 여기야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 감시팀이 폐허로 변한 도시에 초소를 새로 설치했어. 바퀴벌레 같은 놈들…… 농작물을 몽땅 집어삼키고, 뿌리마저 남기지 않았지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……여긴 십여 년 전에 버려진 것 같군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 핵심 설비를 몽땅 가져갔어, 민간인도 예외는 아냐. 남겨진 건물과 지대도 언제 헐릴지 알 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 여긴 또 어느 귀족 나리의 영지인 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 칼에 난도질당한 네바 남작. 이 근방에서 남작의 유산을 물려받을 수 있는 자들이 모조리 죽임을 당했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 지독하군, 대체 누가 그런 짓을……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 왕당파의 짓이야. 제1군단에는 그런 자들이 적지 않거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 대체 뭐가 어떻게 된 거지? 탈룰라, 대반란은 지금의 황제와 군인이 된 귀족 나리들이 일으킨 거라고 하지 않았나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그런데 왜 또 누군가 황제를 도와 귀족을 죽이려는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 대반란 시기에 반란을 주도한 건…… 우르수스가 대외적으로 끊임없이 세력을 확장하던 시대에 덕을 톡톡히 본 이전 세대의 귀족 장교들이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 하지만 새로운 황제가 즉위하자, 그동안 집어삼킨 재산과 도시, 사람들마저 모두 토해내야 했지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 당시 우르수스의 군대는 대부분 귀족 장교의 지휘 아래 있었지만, 왕당파도 그리 멍청하진 않았어. 입을 하나라도 줄여야 한 푼이라도 더 쥘 수 있다는 걸 알았거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 귀족들을 죽이고 그들의 주머니를 차지하려는 거야. 위험했지만 모험을 감수할 만한 가치가 있다고 판단한 거지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그 때문에 대반란 시기에 가까스로 살아남은 몇몇 대도시를 제외하고, 반란을 일으킨 가문들이 가장 큰 피해를 입었다. 이 모든 건 아마도 왕당파의 계획이겠지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 반란군이 대반란에서 우세를 차지했다면 어떻게 됐을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 왕당파는 교수형 당하고, 황제는 연금된 채 퀴퀴한 냄새를 풍기는 늙은 귀족들의 특권을 인정해줘야 했을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 귀족들과 여러 세력이 우르수스를 분할 통치하게 되겠지…… 적어도 암암리에는 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 게다가 현실적으로 봤을 때 대반란 시기 도중이나 사태가 일단락된 뒤에 성공 가도를 달리던 젊은 군관들이 새로운 황제에 충성할 거라곤 생각하지 않아. 그들이 노리는 건 아마도 돈이겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그렇군…… 결국 돈을 위해 싸운다 이건가.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그래.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 대단하군! 넌 뭐든지 다 알고 있는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……내게 이런 것들을 가르쳐준 사람은 내가 얼마나 배웠는지 관심도 없을 만큼 오만한 자였지. 내가 알고 있는 선에서 들려주는 대답은 믿을만할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 흥, 너처럼 똑똑한 녀석이 여긴 왜 온 거지? 네가 그러지 않았나, 살 수 있는 곳이 이미 다 사라졌다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그 얼토당토않은 이야기에서…… 어떻게 며칠 만에 감시팀이 여기 있다는 걸 알아낸 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 주변의 여러 마을이 이주를 준비하고 있었어. 재앙이 일어난 게 아니라면 그 이유는 딱 하나겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 썩어빠진 감시팀이 나타난 거다. 그냥 지나가는 부대였다면 마을 사람들은 움직일 생각도 하지 않았을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 추수철이 막 지난 탓이겠지. 감시팀이 하필 이 시기에 정기 수색에 나선 건, 세리들이 마을에 아직 들르지 않은 틈을 노린 걸 테고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 이 근처에서 그마나 멀쩡한 곳은 쉬라즈부르크야. 경공업이 발달한 곳이라, 자원을 사러 정박하는 경우가 대부분이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 근처에 있는 마을 대부분은 지주의 보호 범위 밖에 있어. 감시팀이 머나먼 이곳까지 달려온 건 그만큼 건질 게 있어서라는 말이 되겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……대반란 이후 감염자를 색출하던 삼류조직이 이제는 세상 무서운 줄 모르고 날뛰는 악당이 된 셈이라고나 할까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그렇다면 놈들을 쓰러뜨리자. 요즘 푹 쉬었으니 슬슬 몸을 풀 때도 됐잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 우리에겐 그럴 만한 힘이 아직 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 뭐?! 그럼 여기서 뭘 하려는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……'방패'다. '방패'로 초소를 공격할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] ……'방패'? 설마 그 유격대를 말하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 맞아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 감염자 유격대?! 하지만…… 폐하가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들에게 연락을 취하는 데 애를 먹었지만, 석 달 동안 소식을 쫓은 끝에 간신히 기회를 잡았지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 며칠 전에 네가 어떤 사람들을 찾고 있다고 했을 때도 대수롭지 않게 생각했는데…… 유격대를 찾고 있었을 줄이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그런데 남쪽 도시의 감염자와는 쉽게 연락이 된 것 같던데, 유격대와는 왜 그렇게 연락하기 어려웠던 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 도시에서 살아남으려면 생생한 정보와 협력이 중요해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 설원에서 살아남으려면 탄탄한 전술과 우르수스 정찰대가 예측할 수 없는 패턴을 앞세워야 하고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 감염자 중에도 전달자는 많아, 다들 자신들만의 신호 전달 방식과 루트를 갖고 있지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 하지만 유격대는 달라. 그들은 툰드라의 감염자하고만 대화하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 유격대는 자신들의 정체가 드러나는 걸 꺼리기 때문에 누구와도 협력하려 하지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들은 그저 감염자를 꾸준히 모집해 전사로 키우려고 해. 내가 기대하는 모습과 다를 수도 있겠지만, 유격대가 듬직하다는 것만은 의심할 여지가 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……적어도 두 개의 유격대가 10km 밖에 있는 감염자 마을에서 자원을 교환했을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그곳의 감염자는 좀처럼 인정하진 않지만, 마을 밖에 있는 불 피운 흔적은 아무래도 군대의 것이 아닌 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들의 목표는 아마도 단 하나…… 방금 구축한 초소와 미처 정비되지 않은 감시팀을 무너뜨리는 걸 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 모두 여기서 기다려, 감시팀이 여길 통해 도주할지 모르니 정신 바짝 차려야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 여긴 쉬라즈부르크에서 멀리 떨어진 데다, 초소가 약한 편이라 제대로 지켜내지 못할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 저들은 반드시 퇴각할 거야, 유격대한테 전멸당하지 않는다면 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 들키지 않게 조심해. 감시팀 두세 개와 정면승부를 펼칠 실력은 아직 없으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 탈룰라?! 혼자 가겠다는 거냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 혼자 가게 해줘. 유격대와 연락하려면 적의가 없다는 걸 보여줘야 하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그리고…… 만일 충돌이 일어난다고 해도 너흰 도망칠 수 있겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 우리가 그런 비겁한 짓을 할 것 같아?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희보다 용감한 사람은 본 적 없어. 그래서 다른 감염자들에게 너흰 무척 중요한 존재야. 사람들이 오래 버티려면 너희의 도움이 더더욱 필요해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희가 살아남는 쪽과 나 때문에 많은 사람이 희생되는 쪽, 어느 게 더 나을 것 같아? 결과는 뻔하잖아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 역시 우릴 얕잡아 보는군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 오랜 고민 끝에 내린 결론이야. 게다가 모두에게 좋은, 최상의 결론이기도 하고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그러니 함부로 말하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 화가 난 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 우리도 화가 나! 네가 우리에 대해 아무것도 모른다고, 우리가 생각하는 것처럼 너도 우리가 널 이해하지 못한다고 생각하잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 우린 결론을 원하는 게 아니야, 너와 함께 돌아가고 싶을 뿐이야…… 어떤 결론 같은 걸 원하는 게 아니라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 네 덕분에 모두 편안하게 지낼 수 있게 됐고, 더 많은 걸 알게 됐지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 잘은 모르겠지만, 다른 도시에서 온 사람들, 심지어 광산의 감염자들과 네가 전혀 다르다고 생각해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 넌 그저 우리가 죽지 않기를 바라는 거겠지. 하지만 탈룰라, 우리를 봐. 우리가 두려워하는 것처럼 보여? 우린 겁쟁이가 아니야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 구차하게 목숨을 부지하느니 너와 함께 싸우다 죽기를 바란다는 걸, 넌 절대 생각도 안 해봤을 거야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 알고 있었지만 그걸 바라지 않는다면 어쩔 건데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 왜 그렇게 말하지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 왜냐면 난 죽지 않을 거니깐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 걱정하지 말고 보내줘. 너희가 가지 않아야 사망자가 줄 거야. 왜냐면, 나는 '불사'거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 어느 역겨운 괴물이 내게 그러더군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 하지만…… 우리를 무시하는 건 견딜 수 없어! 우리가 목숨을 구걸했다는 오해는 사고 싶지 않아, 그러니까 너랑 같이 가게 해줘!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 안 돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 누가 사람을 더 많이 죽였는가는 살인귀들이나 따질 일이야. 너흰 이미 수많은 사람의 존경을 받고 있어. 왜냐하면 너흰 당당히 일어섰으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 만약 누군가 너희를 무시한다면 그 녀석이야말로 무시당해도 싼 놈이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 알았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] ……잠깐! 정말 검 하나만 들고 가겠다는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 명단과 채널 번호부도 챙겼어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 모두들 명심해, 이게 검보다 더 중요하다는 걸!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라는 조금 후회했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라는 간담을 서늘하게 만든다는 유격대도 만나지 못했고, 그들의 트레이드마크인 거대한 방패도 보지 못했다. 낡아빠진 우르수스의 장비도, 심지어 소문으로 들었던 살카즈들도 보지 못했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋은 건지 나쁜 건지 모르겠지만…… 탈룰라는 눈의 악마 소대를 만났다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정말 추웠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불을 붙인 탈룰라가 눈의 악마들의 경악한 시선을 뒤로 한 채 감시팀의 마지막 보루를 향해 뛰어들었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">명단을 태우면 안 돼, 춥긴 하지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여길 좀 덥혀야겠어 라고 생각했다.
 </t>
   </si>
 </sst>
@@ -1221,866 +2071,1508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>301</v>
+      </c>
+      <c r="D88" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" t="s">
+        <v>314</v>
+      </c>
+      <c r="D101" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
+      </c>
+      <c r="D103" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="s">
+        <v>319</v>
+      </c>
+      <c r="D106" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="C107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
